--- a/Data/serum_chemistry_blood.xlsx
+++ b/Data/serum_chemistry_blood.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t xml:space="preserve">Sujet</t>
+  </si>
   <si>
     <t xml:space="preserve">A1</t>
   </si>
@@ -38,85 +41,133 @@
     <t xml:space="preserve">D2</t>
   </si>
   <si>
+    <t xml:space="preserve">Blood Urea Nitrogen</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.5749999999999993</t>
   </si>
   <si>
+    <t xml:space="preserve">Magnesium</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.88500000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">0.81</t>
   </si>
   <si>
+    <t xml:space="preserve">Bilirubin</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.77500000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">0.55000000000000004</t>
   </si>
   <si>
+    <t xml:space="preserve">Lactate Dehydrogenase</t>
+  </si>
+  <si>
     <t xml:space="preserve">142.5</t>
   </si>
   <si>
     <t xml:space="preserve">152.5</t>
   </si>
   <si>
+    <t xml:space="preserve">Creatine Kinase</t>
+  </si>
+  <si>
     <t xml:space="preserve">161</t>
   </si>
   <si>
     <t xml:space="preserve">69.5</t>
   </si>
   <si>
+    <t xml:space="preserve">Uric Acid</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.7</t>
   </si>
   <si>
     <t xml:space="preserve">4.5749999999999993</t>
   </si>
   <si>
+    <t xml:space="preserve">C Reactive Protein</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;0,5</t>
   </si>
   <si>
+    <t xml:space="preserve">Sodium</t>
+  </si>
+  <si>
     <t xml:space="preserve">143</t>
   </si>
   <si>
+    <t xml:space="preserve">Potassium</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.125</t>
   </si>
   <si>
     <t xml:space="preserve">4.34</t>
   </si>
   <si>
+    <t xml:space="preserve">Calcium</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.4750000000000001</t>
   </si>
   <si>
     <t xml:space="preserve">2.48</t>
   </si>
   <si>
+    <t xml:space="preserve">Myoglobin</t>
+  </si>
+  <si>
     <t xml:space="preserve">27</t>
   </si>
   <si>
     <t xml:space="preserve">25</t>
   </si>
   <si>
+    <t xml:space="preserve">Cholesterol</t>
+  </si>
+  <si>
     <t xml:space="preserve">155</t>
   </si>
   <si>
     <t xml:space="preserve">144</t>
   </si>
   <si>
+    <t xml:space="preserve">HDL</t>
+  </si>
+  <si>
     <t xml:space="preserve">47.2</t>
   </si>
   <si>
     <t xml:space="preserve">40.049999999999997</t>
   </si>
   <si>
+    <t xml:space="preserve">LDL</t>
+  </si>
+  <si>
     <t xml:space="preserve">90.55</t>
   </si>
   <si>
     <t xml:space="preserve">102</t>
   </si>
   <si>
+    <t xml:space="preserve">Triglyceride</t>
+  </si>
+  <si>
     <t xml:space="preserve">64</t>
   </si>
   <si>
     <t xml:space="preserve">62.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose</t>
   </si>
   <si>
     <t xml:space="preserve">75.400000000000006</t>
@@ -479,420 +530,471 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
         <v>10.3</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>11.45</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>9.105</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>10.95</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="n">
         <v>11.9</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>12.6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
         <v>0.89</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.825</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.81</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.825</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.845</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.86</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="n">
         <v>0.59</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.345</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1.39</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.585</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.74</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.53</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="n">
         <v>138.5</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>126.5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>155</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>412</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="n">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="n">
         <v>143.5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>151.5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
         <v>116</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>57.5</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>179</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>421.5</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="n">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="n">
         <v>127.5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>92.5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="n">
         <v>6.65</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>5.9</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>5.6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>5.07</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="n">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>5.1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="n">
         <v>0.46</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>1.9</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1.04</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.53</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="n">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.465</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="n">
         <v>139.5</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>138.5</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>140.5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>141.5</v>
       </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="n">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="n">
         <v>142</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>141</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="n">
         <v>4.07</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>4.055</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>4.03</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>4.345</v>
       </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="n">
         <v>4.865</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>3.94</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="n">
         <v>2.07</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>2.295</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>2.34</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>2.335</v>
       </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
       <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="n">
         <v>24</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>24</v>
-      </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>32</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>27</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>254</v>
       </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
       <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="n">
+        <v>32</v>
+      </c>
+      <c r="I12" t="n">
         <v>26</v>
       </c>
-      <c r="G12" t="n">
-        <v>32</v>
-      </c>
-      <c r="H12" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="n">
         <v>129</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>126</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>135.5</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>146.5</v>
       </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="n">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="n">
         <v>162.5</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>185</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="n">
         <v>63.9</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>46.7</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>33</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>34.9</v>
       </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
       <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="n">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="n">
         <v>44.2</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>41.15</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="n">
         <v>56.2</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>69.45</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>98.45</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>116</v>
       </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
       <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="n">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="n">
         <v>116</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>141</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="n">
         <v>63</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>82</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>83.5</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>60</v>
       </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
       <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" t="n">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="n">
         <v>66</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>79.5</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="n">
         <v>69.4</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>75.2</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>82</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>79.4</v>
       </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
       <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="n">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="n">
         <v>72.2</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>75</v>
       </c>
     </row>
